--- a/图图图图.xlsx
+++ b/图图图图.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大三下\社会计算\大作业选题\期末大作业\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大三下\社会计算\大作业选题\期末大作业\all\FinBERT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F8B4C9-B263-4B83-BE20-8D4FE750BCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC23841A-7411-474B-B193-9027A9918062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -51,10 +51,6 @@
     <t>Our Model</t>
   </si>
   <si>
-    <t>|   Model   | Precision | F1-score | Recall |</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BERT-CNN</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -68,6 +64,18 @@
   </si>
   <si>
     <t>OurModel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BiLSTM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bert wmm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BERTCNN</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +275,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$16</c:f>
+              <c:f>Sheet1!$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -288,7 +296,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$17:$C$20</c:f>
+              <c:f>Sheet1!$C$16:$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -308,7 +316,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$17:$D$20</c:f>
+              <c:f>Sheet1!$D$16:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -338,7 +346,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$16</c:f>
+              <c:f>Sheet1!$E$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -359,7 +367,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$17:$C$20</c:f>
+              <c:f>Sheet1!$C$16:$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -379,7 +387,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$17:$E$20</c:f>
+              <c:f>Sheet1!$E$16:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -409,7 +417,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$16</c:f>
+              <c:f>Sheet1!$F$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -430,7 +438,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$17:$C$20</c:f>
+              <c:f>Sheet1!$C$16:$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -450,7 +458,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$17:$F$20</c:f>
+              <c:f>Sheet1!$F$16:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -718,14 +726,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.40110529377545084"/>
-          <c:y val="3.0395136778115502E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -788,9 +788,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$6:$C$9</c:f>
+              <c:f>Sheet1!$C$6:$C$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>BERT-CNN</c:v>
                 </c:pt>
@@ -801,6 +801,9 @@
                   <c:v>FinBERT</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>OurModel</c:v>
                 </c:pt>
               </c:strCache>
@@ -808,10 +811,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$6:$D$9</c:f>
+              <c:f>Sheet1!$D$6:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.75219999999999998</c:v>
                 </c:pt>
@@ -822,6 +825,9 @@
                   <c:v>0.78620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.749</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.85650000000000004</c:v>
                 </c:pt>
               </c:numCache>
@@ -829,7 +835,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C52-4FC3-90D8-F919DC7860C5}"/>
+              <c16:uniqueId val="{00000000-DFC5-4A71-B9B4-B72CA3AC1B20}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -859,9 +865,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$6:$C$9</c:f>
+              <c:f>Sheet1!$C$6:$C$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>BERT-CNN</c:v>
                 </c:pt>
@@ -872,6 +878,9 @@
                   <c:v>FinBERT</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>OurModel</c:v>
                 </c:pt>
               </c:strCache>
@@ -879,10 +888,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$6:$E$9</c:f>
+              <c:f>Sheet1!$E$6:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.75109999999999999</c:v>
                 </c:pt>
@@ -893,6 +902,9 @@
                   <c:v>0.77549999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.74709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.85650000000000004</c:v>
                 </c:pt>
               </c:numCache>
@@ -900,7 +912,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8C52-4FC3-90D8-F919DC7860C5}"/>
+              <c16:uniqueId val="{00000001-DFC5-4A71-B9B4-B72CA3AC1B20}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -930,9 +942,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$6:$C$9</c:f>
+              <c:f>Sheet1!$C$6:$C$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>BERT-CNN</c:v>
                 </c:pt>
@@ -943,6 +955,9 @@
                   <c:v>FinBERT</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>BiLSTM</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>OurModel</c:v>
                 </c:pt>
               </c:strCache>
@@ -950,10 +965,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$6:$F$9</c:f>
+              <c:f>Sheet1!$F$6:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.75149999999999995</c:v>
                 </c:pt>
@@ -964,6 +979,9 @@
                   <c:v>0.75449999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.74950000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.85770000000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -971,7 +989,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8C52-4FC3-90D8-F919DC7860C5}"/>
+              <c16:uniqueId val="{00000002-DFC5-4A71-B9B4-B72CA3AC1B20}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -985,11 +1003,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="686051072"/>
-        <c:axId val="686051552"/>
+        <c:axId val="1907752831"/>
+        <c:axId val="1907743711"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="686051072"/>
+        <c:axId val="1907752831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1050,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686051552"/>
+        <c:crossAx val="1907743711"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1040,7 +1058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="686051552"/>
+        <c:axId val="1907743711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1109,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686051072"/>
+        <c:crossAx val="1907752831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2270,13 +2288,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2305,22 +2323,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+        <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70237FEB-1B14-4F5C-6D03-D46E7D58EAB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ADACE52-3B36-5A96-A58E-67C75217C8C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,6 +2354,270 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>572320</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>593773</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>96541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="图片 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB848CAF-E647-385C-1E09-FF7C5D7F7EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6058720" y="5935980"/>
+          <a:ext cx="4898253" cy="2763541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>588416</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2209</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="图片 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF024D92-5884-C6FD-B003-29D832FABCCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6074816" y="8793480"/>
+          <a:ext cx="4900193" cy="2931063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>206026</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>240062</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>168020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="图片 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43FAFF7-5477-DC0D-CC9A-10420D59F3AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="206026" y="8755380"/>
+          <a:ext cx="5520436" cy="2644520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>273302</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438157</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>116164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="157" name="图片 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D4F97A8-1CE3-1183-18F7-5C9C1AC4359C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="882902" y="5966460"/>
+          <a:ext cx="5041655" cy="2226904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>83098</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>287422</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>44564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="212" name="图片 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B50A46-C667-150A-CD6F-CDE56F434868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="83098" y="11605260"/>
+          <a:ext cx="5690724" cy="2300084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514260</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393904</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>140722</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="213" name="图片 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810DC021-5533-136C-FF1F-22FDEE004454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514260" y="15468600"/>
+          <a:ext cx="5975644" cy="4316482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2604,19 +2886,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:K20"/>
+  <dimension ref="C4:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="4" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -2633,7 +2911,7 @@
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="6">
         <v>0.75219999999999998</v>
@@ -2650,7 +2928,7 @@
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="6">
         <v>7.9200000000000007E-2</v>
@@ -2667,7 +2945,7 @@
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="6">
         <v>0.78620000000000001</v>
@@ -2687,22 +2965,31 @@
         <v>12</v>
       </c>
       <c r="D9" s="6">
-        <v>0.85650000000000004</v>
+        <v>0.749</v>
       </c>
       <c r="E9" s="6">
-        <v>0.85650000000000004</v>
+        <v>0.74709999999999999</v>
       </c>
       <c r="F9" s="6">
-        <v>0.85770000000000002</v>
+        <v>0.74950000000000006</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.85770000000000002</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -2731,83 +3018,85 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+    <row r="14" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>3</v>
+    <row r="16" spans="3:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.84540000000000004</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.84640000000000004</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.84570000000000001</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.84540000000000004</v>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.79359999999999997</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.80249999999999999</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.80920000000000003</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.79359999999999997</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.80249999999999999</v>
+    <row r="18" spans="3:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.78620000000000001</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.78449999999999998</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.78620000000000001</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.77549999999999997</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.78449999999999998</v>
+    <row r="19" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.86650000000000005</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.86119999999999997</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.86509999999999998</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0.86650000000000005</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0.86119999999999997</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0.86509999999999998</v>
+    <row r="39" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S54" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/图图图图.xlsx
+++ b/图图图图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大三下\社会计算\大作业选题\期末大作业\all\FinBERT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC23841A-7411-474B-B193-9027A9918062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7F74EE-0602-4782-8ADA-8E70184B466D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -75,7 +75,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BERTCNN</t>
+    <t>BERTwmm</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2620,6 +2620,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>185913</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>143959</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>129823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="图片 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1010ED6-9E94-98A2-EFE8-C5CA79BDF764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6281913" y="12047220"/>
+          <a:ext cx="4834846" cy="1943383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2886,10 +2930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:S54"/>
+  <dimension ref="C4:S72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="M78" sqref="M78"/>
+      <selection activeCell="Q80" sqref="Q80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3099,6 +3143,11 @@
         <v>14</v>
       </c>
     </row>
+    <row r="72" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S72" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
